--- a/InVanWebApp/ExcelUploads/Download-Format-Company (1).xlsx
+++ b/InVanWebApp/ExcelUploads/Download-Format-Company (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eroff\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABB20E6-8680-4AAF-9DE9-F183F43E9E3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77B47A3-A93D-42CD-B7CB-B20DCFA6C13D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{6F127CB0-B9FF-4DB5-986B-8D945220DED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>TM_0001</t>
   </si>
@@ -36,15 +36,9 @@
     <t>CompanyType</t>
   </si>
   <si>
-    <t>Supplier</t>
-  </si>
-  <si>
     <t>EmailId</t>
   </si>
   <si>
-    <t>ABC company name</t>
-  </si>
-  <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
@@ -69,13 +63,22 @@
     <t>IsBlackListed</t>
   </si>
   <si>
-    <t>akota</t>
-  </si>
-  <si>
-    <t>s232</t>
-  </si>
-  <si>
-    <t>Testing</t>
+    <t>Testing_ABC company</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>hjbnm7845</t>
+  </si>
+  <si>
+    <t>Testing_ABC company1</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>TM_0002</t>
   </si>
 </sst>
 </file>
@@ -496,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DE3A76-C534-483E-A884-AABFD63B277F}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,39 +527,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -564,27 +567,47 @@
       <c r="E2">
         <v>9854213615</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1235485123</v>
+      </c>
+      <c r="G3">
+        <v>784512</v>
+      </c>
+      <c r="I3" t="b">
         <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2">
+  <conditionalFormatting sqref="A2:A3">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:D4">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
@@ -607,8 +630,9 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{39A55AE4-4EC7-4592-8EC9-BB2728CBF3ED}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{821E82D1-B9A3-4119-8E44-ABCA81C424E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>